--- a/target/test-classes/testData/LoginData.xlsx
+++ b/target/test-classes/testData/LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\inetBankingV1\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6F2EE6-E58A-4428-A419-51EA48ABFB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724065B7-AE58-4111-913B-8EACCBECFC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{275FE5DD-B383-44B3-8F23-9324910C6F16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{275FE5DD-B383-44B3-8F23-9324910C6F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -55,16 +55,16 @@
     <t>bAdYvyb</t>
   </si>
   <si>
-    <t>mngr112909</t>
-  </si>
-  <si>
-    <t>tytUreg</t>
-  </si>
-  <si>
     <t>mngr386536</t>
   </si>
   <si>
     <t>ybYdUjU</t>
+  </si>
+  <si>
+    <t>mngr401956</t>
+  </si>
+  <si>
+    <t>ezAgagY</t>
   </si>
 </sst>
 </file>
@@ -454,19 +454,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C6A939-6DEA-4CEC-A841-13EE97D2F3D7}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,15 +474,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -498,20 +498,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
